--- a/P-R_meanDetectionScore_9SP_wMax_d31_chart.xlsx
+++ b/P-R_meanDetectionScore_9SP_wMax_d31_chart.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="P-R_meanDetectionScore_9SP_wMax" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -689,11 +689,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87658880"/>
-        <c:axId val="87652992"/>
+        <c:axId val="112613632"/>
+        <c:axId val="112975872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87658880"/>
+        <c:axId val="112613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -701,12 +701,12 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87652992"/>
+        <c:crossAx val="112975872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87652992"/>
+        <c:axId val="112975872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -715,7 +715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87658880"/>
+        <c:crossAx val="112613632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -728,7 +728,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -738,16 +738,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
